--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value486.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value486.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9840624231463788</v>
+        <v>1.250998973846436</v>
       </c>
       <c r="B1">
-        <v>1.73489807918583</v>
+        <v>3.208706140518188</v>
       </c>
       <c r="C1">
-        <v>4.049637820255477</v>
+        <v>6.063765048980713</v>
       </c>
       <c r="D1">
-        <v>2.508973099038219</v>
+        <v>1.795663952827454</v>
       </c>
       <c r="E1">
-        <v>1.047663044381637</v>
+        <v>1.05532443523407</v>
       </c>
     </row>
   </sheetData>
